--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7CAD9-0695-479E-B851-5437A9FB49CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>xy</t>
   </si>
@@ -136,14 +137,18 @@
   </si>
   <si>
     <t>鼻子不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午没睡着，鼻子还不舒服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,42 +223,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,8 +274,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -298,7 +313,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -307,10 +322,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -338,8 +355,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -349,7 +372,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -444,10 +467,16 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -480,8 +509,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -491,7 +526,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -586,10 +621,16 @@
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -625,8 +666,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -636,7 +683,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -731,15 +778,29 @@
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="73832704"/>
         <c:axId val="73732480"/>
       </c:radarChart>
@@ -748,6 +809,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -776,7 +838,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -785,8 +847,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -826,12 +889,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="73732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -873,7 +938,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -884,6 +949,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -930,7 +996,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -959,7 +1025,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1019,7 +1087,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1041,13 +1109,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1308,21 +1376,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1333,7 +1401,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -1367,7 +1435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -1384,7 +1452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -1401,24 +1469,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -1427,7 +1510,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1436,7 +1519,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1445,7 +1528,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1454,7 +1537,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1463,7 +1546,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1472,7 +1555,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1481,7 +1564,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1490,7 +1573,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1499,7 +1582,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1508,7 +1591,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1517,7 +1600,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1526,7 +1609,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1535,7 +1618,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1544,7 +1627,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -1553,7 +1636,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -1562,7 +1645,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -1571,7 +1654,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -1580,7 +1663,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -1589,7 +1672,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -1598,16 +1681,16 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>18</v>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <v>27</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -1626,7 +1709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1637,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -1654,7 +1737,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -1665,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -1676,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -1687,7 +1770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -1698,7 +1781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -1709,7 +1792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -1720,7 +1803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -1731,7 +1814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -1742,7 +1825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="85.5">
+    <row r="45" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7CAD9-0695-479E-B851-5437A9FB49CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0431B72D-F199-4191-9642-DE8DBD890DC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,6 +473,9 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -625,6 +628,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -783,6 +789,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1396,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,9 +1514,15 @@
       <c r="A7" s="2">
         <v>43196</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1684,7 +1699,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0431B72D-F199-4191-9642-DE8DBD890DC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E395D4-A504-491F-ACBE-56BF0FC3B14B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,6 +791,21 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1396,7 +1411,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1544,9 @@
       <c r="A8" s="2">
         <v>43197</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1538,7 +1555,9 @@
       <c r="A9" s="2">
         <v>43198</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1547,7 +1566,9 @@
       <c r="A10" s="2">
         <v>43199</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1556,7 +1577,9 @@
       <c r="A11" s="2">
         <v>43200</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1565,7 +1588,9 @@
       <c r="A12" s="2">
         <v>43201</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1699,7 +1724,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E395D4-A504-491F-ACBE-56BF0FC3B14B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C16C6D-34C0-4982-B65D-521BB0D10EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,6 +807,21 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,7 +1426,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1614,9 @@
       <c r="A13" s="2">
         <v>43202</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1608,7 +1625,9 @@
       <c r="A14" s="2">
         <v>43203</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1617,7 +1636,9 @@
       <c r="A15" s="2">
         <v>43204</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1626,7 +1647,9 @@
       <c r="A16" s="2">
         <v>43205</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1635,7 +1658,9 @@
       <c r="A17" s="2">
         <v>43206</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1724,7 +1749,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C16C6D-34C0-4982-B65D-521BB0D10EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>xy</t>
   </si>
@@ -141,14 +140,18 @@
   </si>
   <si>
     <t>中午没睡着，鼻子还不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡到自然醒，就是不一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,42 +226,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -274,18 +277,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -313,7 +306,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -322,12 +315,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -355,14 +346,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -372,7 +357,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -476,10 +461,16 @@
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -512,14 +503,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -529,7 +514,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -633,10 +618,16 @@
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -672,14 +663,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -689,7 +674,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -821,34 +806,28 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="73832704"/>
-        <c:axId val="73732480"/>
+        <c:axId val="58956032"/>
+        <c:axId val="58728832"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="73832704"/>
+        <c:axId val="58956032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -877,7 +856,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -886,9 +865,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -923,19 +901,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73732480"/>
+        <c:crossAx val="58728832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73732480"/>
+        <c:axId val="58728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -977,7 +953,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -988,7 +964,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1023,7 +998,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73832704"/>
+        <c:crossAx val="58956032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1035,7 +1010,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1064,9 +1039,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1100,7 +1073,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1126,7 +1099,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,13 +1121,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E26"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1415,32 +1388,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="0.25" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -1474,7 +1447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -1491,7 +1464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -1508,7 +1481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -1523,7 +1496,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -1540,7 +1513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -1555,7 +1528,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1566,7 +1539,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1577,7 +1550,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1588,7 +1561,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1599,7 +1572,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1610,7 +1583,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1621,7 +1594,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1632,7 +1605,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1643,7 +1616,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1654,27 +1627,39 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1683,7 +1668,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1692,7 +1677,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -1701,7 +1686,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -1710,7 +1695,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -1719,7 +1704,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -1728,7 +1713,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -1737,7 +1722,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -1746,16 +1731,16 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27" s="3">
-        <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>94</v>
+        <f>SUBTOTAL(109,[xy])</f>
+        <v>97.5</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -1774,7 +1759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1785,7 +1770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -1802,7 +1787,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -1813,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -1824,7 +1809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -1835,7 +1820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -1846,7 +1831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -1857,7 +1842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -1868,7 +1853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -1879,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -1890,7 +1875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="85.5">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145AED9-7305-4BC9-8D1C-BCB6EE94EE31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -150,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,42 +227,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,8 +278,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -306,7 +317,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -315,10 +326,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -346,8 +359,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -357,7 +376,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -467,10 +486,13 @@
                 <c:pt idx="16">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -503,8 +525,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -514,7 +542,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -624,10 +652,13 @@
                 <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -663,8 +694,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -674,7 +711,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -811,15 +848,26 @@
                 <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="58956032"/>
         <c:axId val="58728832"/>
       </c:radarChart>
@@ -828,6 +876,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -856,7 +905,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -865,8 +914,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -906,12 +956,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="58728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -953,7 +1005,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -964,6 +1016,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1010,7 +1063,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1039,7 +1092,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1099,7 +1154,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,13 +1176,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1388,21 +1443,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1413,7 +1468,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -1447,7 +1502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -1464,7 +1519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -1481,7 +1536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -1496,7 +1551,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -1513,7 +1568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -1528,7 +1583,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1539,7 +1594,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1550,7 +1605,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1561,7 +1616,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1572,7 +1627,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1583,7 +1638,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1594,7 +1649,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1605,7 +1660,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1616,7 +1671,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1627,7 +1682,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1644,7 +1699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1659,16 +1714,22 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1677,7 +1738,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -1686,7 +1747,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -1695,7 +1756,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -1704,7 +1765,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -1713,7 +1774,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -1722,7 +1783,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -1731,16 +1792,16 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>97.5</v>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <v>100.5</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1748,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -1759,7 +1820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1770,7 +1831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -1787,7 +1848,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -1798,7 +1859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -1809,7 +1870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -1820,7 +1881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -1831,7 +1892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -1842,7 +1903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -1853,7 +1914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -1864,7 +1925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -1875,7 +1936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="85.5">
+    <row r="45" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145AED9-7305-4BC9-8D1C-BCB6EE94EE31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A26F244-D671-4A09-821F-89487D795098}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,6 +655,9 @@
                 <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -850,6 +853,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,7 +1460,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1733,9 +1739,13 @@
       <c r="A20" s="2">
         <v>43209</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1795,7 +1805,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A26F244-D671-4A09-821F-89487D795098}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0356BD77-8969-4575-951B-7CA50CE8827E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>xy</t>
   </si>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>睡到自然醒，就是不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺氧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +462,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$C$2:$C$26</c:f>
+              <c:f>身体状态!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -488,6 +492,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,10 +634,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$D$2:$D$26</c:f>
+              <c:f>身体状态!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -656,6 +666,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -796,10 +809,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$B$2:$B$26</c:f>
+              <c:f>身体状态!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -856,6 +869,30 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,16 +1181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>352427</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>333377</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1182,8 +1219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
@@ -1457,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1742,7 +1779,9 @@
       <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
@@ -1752,16 +1791,26 @@
       <c r="A21" s="2">
         <v>43210</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1770,7 +1819,9 @@
       <c r="A23" s="2">
         <v>43212</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1779,7 +1830,9 @@
       <c r="A24" s="2">
         <v>43213</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1788,7 +1841,9 @@
       <c r="A25" s="2">
         <v>43214</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1797,157 +1852,181 @@
       <c r="A26" s="2">
         <v>43215</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="A27" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>104.5</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+        <v>152.5</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年4月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0356BD77-8969-4575-951B-7CA50CE8827E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE20A9B-1EC6-4D25-974F-E6204852B5F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$C$2:$C$28</c:f>
+              <c:f>身体状态!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -498,6 +498,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,10 +640,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$D$2:$D$28</c:f>
+              <c:f>身体状态!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -670,6 +676,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,10 +821,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$B$2:$B$28</c:f>
+              <c:f>身体状态!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -892,6 +904,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1189,7 +1207,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>333377</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1219,8 +1237,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E32" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
@@ -1494,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1882,151 +1900,190 @@
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="A29" s="2">
+        <v>43218</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>43219</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>152.5</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+        <v>162.5</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>2</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="50" spans="1:1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>12</v>
       </c>
     </row>
